--- a/biology/Histoire de la zoologie et de la botanique/Francisco_Antonio_Zea/Francisco_Antonio_Zea.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Francisco_Antonio_Zea/Francisco_Antonio_Zea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Francisco Antonio Zea est un homme scientifique et politique colombien, né  le 23 novembre 1766 à Medellín en Colombie et mort le 28 novembre 1822 à Bath en Angleterre[1]. Il fut baptisé le 23 novembre 1766 sous le nom de Juan Francisco Antonio Hilarión. Ses parents, don Pedro Zea et doña Rosalía Díaz, appartenaient à un groupe de Basques qui colonisèrent Antioquia. Zea eut deux sœurs : María Francisca et María de Jesús. Don Pedro occupa quelques fonctions importantes à Villa de la Candelaria de Medellín, alors récemment fondée, et à Santa Rosa de Osos. Lorsque Zea naît, Pedro Messía de la Cerda est vice-roi de Nouvelle-Grenade et José Barón de Chaves régit le département d'Antioquia ; c'était une période marquée par le chômage, par beaucoup de restrictions au travail et des impôts élevés.
+Francisco Antonio Zea est un homme scientifique et politique colombien, né  le 23 novembre 1766 à Medellín en Colombie et mort le 28 novembre 1822 à Bath en Angleterre. Il fut baptisé le 23 novembre 1766 sous le nom de Juan Francisco Antonio Hilarión. Ses parents, don Pedro Zea et doña Rosalía Díaz, appartenaient à un groupe de Basques qui colonisèrent Antioquia. Zea eut deux sœurs : María Francisca et María de Jesús. Don Pedro occupa quelques fonctions importantes à Villa de la Candelaria de Medellín, alors récemment fondée, et à Santa Rosa de Osos. Lorsque Zea naît, Pedro Messía de la Cerda est vice-roi de Nouvelle-Grenade et José Barón de Chaves régit le département d'Antioquia ; c'était une période marquée par le chômage, par beaucoup de restrictions au travail et des impôts élevés.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin du XVIIIe siècle, il règne une ambiance de misère et de désaccord dans toute la Nouvelle-Grenade. L'administration publique de la colonie se fait de plus en plus pesante, les châtiments sont très cruels envers les opposants au régime. Zea entreprend initialement ses études à Medellín, il les poursuit ensuite au Real Colegio et au séminaire de Popayán, où enseigne un de ses parents et compatriotes José Félix de Restrepo. Là-bas, les méthodes d'enseignement sont révolutionnées : d'abord par le biais du recteur-prêtre José Matías de la Plaza, puis, au temps de Zea, du recteur-prêtre équatorien, le docteur Grijalba. Les changements sont en accord avec la réforme de l'éducation proposée par Antonio Moreno y Escandón, approuvée non seulement par le vice-roi, mais aussi par José Celestino Mutis et José Félix de Restrepo. Au séminaire de Popayán, Zea se lie d'amitié avec Francisco José de Caldas, Camilo Torres Tenorio, Joaquín de Caycedo y Cuero, Francisco Ulloa et José María Cabal, entre autres.
 Il achève ses études en 1785, quatre ans après la cruelle répression par laquelle l'archevêque et vice-roi Antonio Caballero y Góngora avait réprimé la révolte des Comuneros, et qui, vers 1789, croyait au besoin de reformer les systèmes éducatifs obsolètes de la vice-royauté. Malgré la volonté de son père désirant pour Zea un cursus ecclésiastique, il part en 1786 pour Bogota avec pour objectif de continuer ses études à la faculté de jurisprudence du Colegio de San Bartolomé. Là-bas, il fait une demande de bourses qu'il obtient ; au cours des premiers mois de son internat, il vit dans la plus grande pauvreté et tombe gravement malade. Zea est renvoyé de San Bartolomé par le recteur, car il n'a pas de quoi payer la modeste pension. Grâce à l'aide du Medellinois Gabriel Muñoz, il peut continuer ses études.
@@ -545,7 +559,9 @@
           <t>Scientifique et patriote</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La réforme de l'éducation est renforcé par la publication, dans la presse locale de Santa Fe de Bogotá, de toutes sortes d'études scientifiques et politiques ; dans El Correo, Jorge Tadeo Lozano et Luis de Azuola insistaient sur la nécessité de chaires d'économie politique et de statistique sociale. Zea, sous le pseudonyme de Hebéfilo, publie en 1792, entre autres, "Los avisos de Hebéfilo", avec un grand contenu patriotique, dans El Papel Periódico. Il y critique et réclame un changement radical dans les méthodes d'enseignement et de sélection des maîtres principalement pratiquées dans les Colegios San Bartolomé et San Tomás ; il proposait l'enseignement des sciences, des arts, de la littérature et du commerce. Il y avait à Santa Fe de Bogotá une grande agitation intellectuelle à la fin du XVIIIe siècle. Le 9 février 1791 voit l'apparition du premier journal grenadin. L'Expédition Botanique était en plein développement et affleuraient les réunions informelles comme celles de doña Manuela Santamaría de Manrique, de Antonio Nariño, de la Bibliothèque Publique et de la maison seigneuriale de la rue Carrera, où Mutis parlait de politique et de botanique. Le journaliste Manuel de Socorro Rodríguez exerçait une grande influence, ainsi que Jorge Tadeo Lozano, Pedro Fermín de Vargas, Antonio Nariño, Camilo Torres et Francisco José de Caldas, entre autres.
 Zea fut membre de El Casino Literario, centre patriotique organisé par Antonio Nariño à Bogotá, rejoignant les associations politico-littéraires qu'il y avait dans certains cercles de Venecia où y discutaient les hommes de science et d'étude, les professeurs, les journalistes et voyageurs illustres, porteurs de la nouvelle idéologie sociale des Lumières. El Casino Literario disposait d'une très bonne bibliothèque et d'une imprimerie, où furent éditées de nombreuses œuvres d'auteurs anciens et modernes, dont un bon nombre fut traduit de l'anglais et du français par Zea. Avec la publication de la Déclaration des droits de l'homme et du citoyen, traduite du français par Nariño, débute une étude immédiate.
@@ -556,8 +572,8 @@
 En 1815 il met le cap sur Haiti a l'expédition naval commandée par Simon Bolívar quitte le port de Los Cayos de San Luis. Le 3 mai 1816, la flotte touche le sol vénézuélien sur l'île de Margarita, où le 7 du même mois une réunion est dirigée par le général Juan Bautista Arismendi confirmant les pouvoirs spéciaux conférés à Bolivar à Los Cayos. À la suite de cette approbation, les forces expéditionnaires rejoignent Carúpano, où elles débarquent et proclament l'abolition de l'esclavage. La flotte repart et suit la côte jusqu'à Ocumare de la Costa, où les forces débarquent et vont jusqu'à Maracay mais, harcelées par Francisco Tomás Morales (es), Bolivar doivent se retirer a Haiti laissant une partie du matériel sur la plage et la moitié des soldats qui, sous les ordres de Gregor MacGregor, entreprennent une retraite par la terre à travers les vallées du río Aragua jusqu'à l'est, mouvement connu sous le nom de Retirada de los Seiscientos (es).   
 En octobre 1816, après la victoire à la bataille d'El Juncal, les chefs patriotiques acceptèrent de demander à Bolivar de revenir et ils chargèrent Zea de s'installer en Haïti pour annoncer la bonne nouvelle au Libérateur. 
 La mise sur pied d'une nouvelle expédition militaire, Bolívar rembarque à Jacmel et arrivé à Juan Griego le 28 décembre 1816 et à Barcelona le 31 du même mois, où il établit son quartier général et planifie la campagne de Caracas avec la concentration des forces opérant en Apure, en Guyane et dans l'Est, mais après une série de déconvenues (es) le plan est abandonné et l'armée patriote déménage en Guyane, prenant le commandement des opérations contre les royalistes dans la région. 
-Le 8 mai 1817 il est nommé suppléant de Bolivar au Congrès du Venezuela. Le 19 juillet 1817, ensemble ils conquièrent Angostura. Zea participe activement à l'administration. Le 22 novembre, alors que Bolivar part combattre le pacificateur Pablo Morillo, Zea le remplace au poste d'exécuteur de projets civils. Là-bas, par ses actions, il est considéré comme quelqu'un de bon et de prodigue, particulièrement en ce qui concerne le paiement des salaires. Il dirige le journal El Correo del Orinoco, d'où il prépare psychologiquement le terrain pour le Congrès d'Angostura (15 février 1819)[2], lors duquel se formera la Grande Colombie. À Angostura, il est élu vice-président chargé du pouvoir exécutif et président du Congrès, où il éprouve de sérieuses difficultés à cause du refus des militaires vénézuéliens à être commandés par un civil et encore moins par un Grenadin.
-Zea renonce le 7 septembre, malgré la récente victoire de la bataille de Boyacá, puis la fondation de la Grande Colombie en décembre 1819, il est élu vice-président. La nouvelle république avait besoin d'obtenir la reconnaissance des gouvernements étrangers et un emprunt de 2 à 5 millions de livres ; des livres sterling pour couvrir les dettes, ainsi que stimuler l'agriculture et le développement du pays. Parce qu'il est l'un des Grenadins les plus connus en Europe, Zea est choisi pour une mission qui consiste à représenter la Colombie face aux gouvernements des États-Unis, de l'Angleterre, de la France, de la Hollande, de la Russie, de l'Allemagne, de la Suisse et du Vatican, entre autres. Cependant, selon Marco Fidel Suárez, il manquait d'habileté diplomatique et montrait des lacunes dans la connaissance des dossiers des finances et du commerce. Sa mission fut très critiquée, particulièrement par Jerónimo Torres. En 1821 il est démis de ses fonctions[1].
+Le 8 mai 1817 il est nommé suppléant de Bolivar au Congrès du Venezuela. Le 19 juillet 1817, ensemble ils conquièrent Angostura. Zea participe activement à l'administration. Le 22 novembre, alors que Bolivar part combattre le pacificateur Pablo Morillo, Zea le remplace au poste d'exécuteur de projets civils. Là-bas, par ses actions, il est considéré comme quelqu'un de bon et de prodigue, particulièrement en ce qui concerne le paiement des salaires. Il dirige le journal El Correo del Orinoco, d'où il prépare psychologiquement le terrain pour le Congrès d'Angostura (15 février 1819), lors duquel se formera la Grande Colombie. À Angostura, il est élu vice-président chargé du pouvoir exécutif et président du Congrès, où il éprouve de sérieuses difficultés à cause du refus des militaires vénézuéliens à être commandés par un civil et encore moins par un Grenadin.
+Zea renonce le 7 septembre, malgré la récente victoire de la bataille de Boyacá, puis la fondation de la Grande Colombie en décembre 1819, il est élu vice-président. La nouvelle république avait besoin d'obtenir la reconnaissance des gouvernements étrangers et un emprunt de 2 à 5 millions de livres ; des livres sterling pour couvrir les dettes, ainsi que stimuler l'agriculture et le développement du pays. Parce qu'il est l'un des Grenadins les plus connus en Europe, Zea est choisi pour une mission qui consiste à représenter la Colombie face aux gouvernements des États-Unis, de l'Angleterre, de la France, de la Hollande, de la Russie, de l'Allemagne, de la Suisse et du Vatican, entre autres. Cependant, selon Marco Fidel Suárez, il manquait d'habileté diplomatique et montrait des lacunes dans la connaissance des dossiers des finances et du commerce. Sa mission fut très critiquée, particulièrement par Jerónimo Torres. En 1821 il est démis de ses fonctions.
 En 1822 il publie, à Londres, Colombia being a Geographical, Statiscal, Agricultural, and Political Account of the Country with Map and Portraits of Bolivar and F. A. Zea, etc., œuvre avec laquelle il prétend réduire le discrédit jeté sur la Campagne Libératrice en Europe. Le livre, composé de deux volumes, traite de la géographie, la faune, la flore, les richesses, les guerres et l'histoire de Colombie. Il est édité en anglais et en espagnol afin de servir de préambule à une mission si compliquée.
 Zea meurt à Bath, en Angleterre, le 28 novembre 1822 à l'âge de 56 ans. Il est enterré le 4 décembre à l'Abbaye de Saint Pierre et Saint Paul de Bath. Selon Germán Arciniegas, c'est seulement en 1969, lors du cent-quarante-septième anniversaire de la mort de Zea, que le directeur de la Casa de Moneda de Bogotá, Barriga Villalba, fait connaître les détails du fameux emprunt, où l'on met en relation jusqu'au dernier penny avec les problèmes que dut résoudre Zea pour faire rayonner le nom de la Grande Colombie dans la superbe européenne.
 </t>
@@ -588,7 +604,9 @@
           <t>Abréviation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Zea est l’abréviation botanique standard de Francisco Antonio Zea.
